--- a/results/BaggingClassifier_DecisionTreeClassifier-train_df.xlsx
+++ b/results/BaggingClassifier_DecisionTreeClassifier-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.7735849056603775</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7359605911330049</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7291866028708134</v>
+        <v>0.7411483253588517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6986111111111111</v>
+        <v>0.7367924528301888</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7633349224005509</v>
+        <v>0.7478389205144423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6968339307048983</v>
+        <v>0.7435179549604384</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7" t="n">
         <v>0.7368421052631579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6588235294117647</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7128712871287128</v>
+        <v>0.7735849056603775</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6891766882516188</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6956937799043061</v>
+        <v>0.7411483253588517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6858474082702388</v>
+        <v>0.7367924528301888</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.706255657346344</v>
+        <v>0.7478389205144423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6907872570938308</v>
+        <v>0.7435179549604384</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.65</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8545454545454545</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7833333333333332</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7186813186813187</v>
+        <v>0.6537671232876712</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6904306220095693</v>
+        <v>0.6074162679425837</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6946969696969696</v>
+        <v>0.5991379310344829</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7194848162590098</v>
+        <v>0.6544557372219767</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7108993157380253</v>
+        <v>0.6267148683722655</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C17" t="n">
         <v>0.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.5507246376811595</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7246376811594203</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7581521739130435</v>
+        <v>0.653225806451613</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.6409090909090909</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6428836863619474</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7520258687860372</v>
+        <v>0.660596600763094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7273673257023935</v>
+        <v>0.6597299640777903</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8363636363636363</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8932038834951457</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8791666666666667</v>
+        <v>0.7451388888888889</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8918660287081339</v>
+        <v>0.7533492822966508</v>
       </c>
       <c r="D25" t="n">
-        <v>0.880336881506609</v>
+        <v>0.7404651162790696</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8936379928315412</v>
+        <v>0.7632915173237754</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8826889141281694</v>
+        <v>0.7440360090022505</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
